--- a/src/api/data/产品线.xlsx
+++ b/src/api/data/产品线.xlsx
@@ -47,7 +47,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>http://www.jst-mfg.com</t>
@@ -80,11 +80,11 @@
     <font>
       <u val="single"/>
       <sz val="10"/>
-      <color indexed="12"/>
+      <color indexed="13"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,8 +97,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -151,13 +157,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -167,10 +260,43 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -193,7 +319,9 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1290,9 +1418,7 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1411,14 +1537,101 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="10" customWidth="1"/>
+    <col min="1" max="1" width="10" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10" style="5" customWidth="1"/>
+    <col min="6" max="256" width="10" style="5" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+    </row>
+  </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -1432,14 +1645,101 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="10" customWidth="1"/>
+    <col min="1" max="1" width="10" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10" style="15" customWidth="1"/>
+    <col min="6" max="256" width="10" style="15" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+    </row>
+  </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/src/api/data/产品线.xlsx
+++ b/src/api/data/产品线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>title</t>
   </si>
@@ -53,6 +53,196 @@
       <t>http://www.jst-mfg.com</t>
     </r>
   </si>
+  <si>
+    <t>莫莱克斯（美国）</t>
+  </si>
+  <si>
+    <t>莫莱克斯是世界上最大的电子、电气以及光纤互连产品和系统制造商之一。莫莱克斯同时也是生产品种齐全的开关和应用工具。莫莱克斯，作为全套产品供应商，保证全球资源配置以满足全球、地区和本土客户的需求。遍布六大洲的莫莱克斯产品开发中心、制造工厂以及销售办事处的团队全心全意100%服务客户。莫莱克斯的潜心敬业精神使其从1938年成立后成为电气行业成长最迅速的公司之一。</t>
+  </si>
+  <si>
+    <t>连接器、集成产品</t>
+  </si>
+  <si>
+    <t>http://www.molex.com</t>
+  </si>
+  <si>
+    <t>矢崎（日本）</t>
+  </si>
+  <si>
+    <t>矢崎提供品种齐全的成品及客户设计连接器，提升全部网络设备的系统集成度，并兼容支持各种类型的应用和环境条件。矢崎掌握市场升级要求并采用先进材料部署领先的设计和制造工艺，生产重量、尺寸、性价比最优的互连系统。公司的连接器具有竞争性价格且更加可靠、扩展内置、装备简便且开发周期更短的优势。</t>
+  </si>
+  <si>
+    <t>http://www.yazaki-group.com</t>
+  </si>
+  <si>
+    <t>益升华（英国）</t>
+  </si>
+  <si>
+    <t>益升华零件制造、销售小型基本组件，如：塑料防护帽、工件夹紧钳、紧固件、手柄和把手以及印刷电路板硬件。作为远景2015战略的一部分，联盟、里德供应以及瑞科公司三家公司合并成立美国益升华零件公司，在美国的地区销售网络以及覆盖欧洲、中东、非洲和亚太地区的全球网络中通过42家主要制造企业、64处销售和配送运营网点以及5家研发中心为客户提供广泛的工业零部件选择。</t>
+  </si>
+  <si>
+    <t>定位器、紧固件、线扣、锁</t>
+  </si>
+  <si>
+    <t>http://us.essentracomponents.com/</t>
+  </si>
+  <si>
+    <t>艾利丹尼森（美国）</t>
+  </si>
+  <si>
+    <t>艾利丹尼森集团是压敏粘性材料（如自粘标签）、服装商标标牌和标签、无线射频识别嵌体以及专业医疗产品的全球制造商和销售商。</t>
+  </si>
+  <si>
+    <t>标签、户外图形标签</t>
+  </si>
+  <si>
+    <t>http://www.averydennison.com</t>
+  </si>
+  <si>
+    <t>诺通（美国）</t>
+  </si>
+  <si>
+    <t>诺通全球互联集团作为有线和无线互连产品的优选制造商在电子和数据通讯行业提供齐全的解决方案和无可匹敌的客户服务体验。</t>
+  </si>
+  <si>
+    <t>电缆、射频及实业</t>
+  </si>
+  <si>
+    <t>http://www.l-com.com</t>
+  </si>
+  <si>
+    <t>日本壓著端子</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>日本壓著端子製造有限公司成立於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>1957</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>年。自成立起，日本壓著端子以其創新和卓越的聲譽確立了其在連接器製造業十强之一的地位。日本壓著端子集團建成生產、研發設施以及服務中心全球網絡。公司的經營宗旨是為客戶提供可靠、技術領先且性價比高的產品。</t>
+    </r>
+  </si>
+  <si>
+    <t>產品</t>
+  </si>
+  <si>
+    <t>連接器</t>
+  </si>
+  <si>
+    <t>莫萊克斯（美國）</t>
+  </si>
+  <si>
+    <t>莫萊克斯是世界上最大的電子、電氣以及光纖互連產品和系統制造商之一。莫萊克斯同時也是生產品種齊全的開關和應用工具。莫萊克斯，作為全套產品供應商，保證全球資源配置以滿足全球、地區和本土客戶的需求。遍布六大洲的莫萊克斯產品開發中心、制造工廠以及銷售辦事處的團隊全心全意100%服務客戶。莫萊克斯的潛心敬業精神使其從1938年成立後成為電氣行業成長最迅速的公司之一。</t>
+  </si>
+  <si>
+    <t>連接器、集成產品</t>
+  </si>
+  <si>
+    <t>矢崎提供品種齊全的成品及客戶設計連接器，提升全部網絡設備的系統集成度，並兼容支持各種類型的應用和環境條件。矢崎掌握市場升級要求並采用先進材料部署領先的設計和制造工藝，生產重量、尺寸、性價比最優的互連系統。公司的連接器具有競爭性價格且更加可靠、擴展內置、裝備簡便且開發周期更短的優勢。</t>
+  </si>
+  <si>
+    <t>益升華（英國）</t>
+  </si>
+  <si>
+    <t>益升華零件制造、銷售小型基本組件，如：塑料防護帽、工件夾緊鉗、緊固件、手柄和把手以及印刷電路板硬件。作為遠景2015戰略的一部分，聯盟、裏德供應以及瑞科公司三家公司合並成立美國益升華零件公司，在美國的地區銷售網絡以及覆蓋歐洲、中東、非洲和亞太地區的全球網絡中通過42家主要制造企業、64處銷售和配送運營網點以及5家研發中心為客戶提供廣泛的工業零部件選擇。</t>
+  </si>
+  <si>
+    <t>定位器、緊固件、線扣、鎖</t>
+  </si>
+  <si>
+    <t>艾利丹尼森（美國）</t>
+  </si>
+  <si>
+    <t>艾利丹尼森集團是壓敏粘性材料（如自粘標簽）、服裝商標標牌和標簽、無線射頻識別嵌體以及專業醫療產品的全球制造商和銷售商。</t>
+  </si>
+  <si>
+    <t>標簽、戶外圖形標簽</t>
+  </si>
+  <si>
+    <t>諾通（美國）</t>
+  </si>
+  <si>
+    <t>諾通全球互聯集團作為有線和無線互連產品的優選制造商在電子和數據通訊行業提供齊全的解決方案和無可匹敵的客戶服務體驗。</t>
+  </si>
+  <si>
+    <t>電纜、射頻及實業</t>
+  </si>
+  <si>
+    <t>JST 
+Molex 
+Yazaki</t>
+  </si>
+  <si>
+    <t>Molex (USA)
+http://www.molex.com
+Molex is one the world's largest manufacturers of electronic, electrical and fiber optic interconnection products and systems. Molex also makes a variety of switches and application tooling. As a one-source supplier, Molex assures worldwide coordination of resources to meet the customers' needs globally, regionally and locally. The Molex Team in product development centers, manufacturing facilities and sales offices on six continents is 100 percent customer driven. This dedication has kept Molex one of the fastest growing companies in the electronics industry since they opened for business in 1938.
+Product: Connector, Integrated Product,</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>Molex (USA)</t>
+  </si>
+  <si>
+    <t>Molex is one the world's largest manufacturers of electronic, electrical and fiber optic interconnection products and systems. Molex also makes a variety of switches and application tooling. As a one-source supplier, Molex assures worldwide coordination of resources to meet the customers' needs globally, regionally and locally. The Molex Team in product development centers, manufacturing facilities and sales offices on six continents is 100 percent customer driven. This dedication has kept Molex one of the fastest growing companies in the electronics industry since they opened for business in 1938.</t>
+  </si>
+  <si>
+    <t>Connector, Integrated Product,</t>
+  </si>
+  <si>
+    <t>YAZAKI (Japan)</t>
+  </si>
+  <si>
+    <t>YAZAKI offer a broad range of off-the-shelf and custom designed connectors that improve system integrity to all network devices, while supporting a full range of applications and environmental conditions. YAZAKI understands the evolving market requirements and employs leading design and manufacturing techniques along with advanced materials to deliver connection systems that are optimized for weight, size, cost and performance. Our connectors provide enhanced reliability, built-in scalability, simplified assembly, and reduced development cycles at a competitive price.</t>
+  </si>
+  <si>
+    <t>Essentra (UK)</t>
+  </si>
+  <si>
+    <t>Essentra Components manufactures and distributes small, essential components, such as protective plastic caps, workholding clamps, fasteners, handles &amp; knobs and PCB hardware.As part of its Vision 2015 strategy, three companies: Alliance, Reid Supply, and Richco Inc. were joined together to form Essentra Components America. This provided our customers with a vast selection of industrial components with regional distribution sites across America and an international network extending to Europe, the Middle East, Africa and Asia Pacific regions, including 42 principal manufacturing facilities, 64 sales and distribution operations and 5 research/development centers.</t>
+  </si>
+  <si>
+    <t>Retainer, Fastener, Cable Tie, Lock</t>
+  </si>
+  <si>
+    <t>Avery Dennison (USA)</t>
+  </si>
+  <si>
+    <t>Avery Dennison Corporation is a global manufacturer and distributor of pressure-sensitive adhesive materials (such as self-adhesive labels), apparel branding labels and tags, RFID inlays, and specialty medical products.</t>
+  </si>
+  <si>
+    <t>Label, Outdoor Graphic Label</t>
+  </si>
+  <si>
+    <t>L-COM (USA)</t>
+  </si>
+  <si>
+    <t>L-com Global Connectivity, a preferred manufacturer of wired and wireless connectivity products, offers a wide range of solutions and unrivaled customer service for the electronics and data communications industries.</t>
+  </si>
+  <si>
+    <t>Cable, RF &amp; Industrial</t>
+  </si>
 </sst>
 </file>
 
@@ -61,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -82,6 +272,11 @@
       <sz val="10"/>
       <color indexed="13"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
     </font>
   </fonts>
   <fills count="4">
@@ -104,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -150,6 +345,21 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
@@ -159,88 +369,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="8"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="8"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="8"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -263,40 +416,40 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -321,7 +474,6 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1430,7 +1582,7 @@
     <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" customHeight="1">
+    <row r="1" ht="14.65" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1447,78 +1599,128 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="198.55" customHeight="1">
+    <row r="2" ht="198.6" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>5</v>
       </c>
       <c r="B2" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="4">
         <v>7</v>
       </c>
       <c r="D2" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="14.35" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="14.35" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" ht="14.35" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" ht="14.35" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" ht="14.35" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" ht="14.35" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" ht="14.35" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" ht="14.35" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+    <row r="3" ht="42" customHeight="1">
+      <c r="A3" t="s" s="6">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="42" customHeight="1">
+      <c r="A4" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="42" customHeight="1">
+      <c r="A5" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="42" customHeight="1">
+      <c r="A6" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="42" customHeight="1">
+      <c r="A7" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="42" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" ht="42" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" ht="42" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1537,21 +1739,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10" style="5" customWidth="1"/>
-    <col min="6" max="256" width="10" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10" style="8" customWidth="1"/>
+    <col min="6" max="256" width="10" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" ht="12.95" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1568,70 +1770,154 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="12"/>
+    <row r="2" ht="136.5" customHeight="1">
+      <c r="A2" t="s" s="9">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s" s="9">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="42" customHeight="1">
+      <c r="A3" t="s" s="11">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s" s="11">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="42" customHeight="1">
+      <c r="A4" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="42" customHeight="1">
+      <c r="A5" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s" s="11">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="42" customHeight="1">
+      <c r="A6" t="s" s="11">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="42" customHeight="1">
+      <c r="A7" t="s" s="11">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="42" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" ht="42" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" ht="42" customHeight="1">
+      <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" ht="42" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" ht="42" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" ht="42" customHeight="1">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" location="" tooltip="" display=""/>
+  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -1645,21 +1931,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10" style="15" customWidth="1"/>
-    <col min="3" max="3" width="10" style="15" customWidth="1"/>
-    <col min="4" max="4" width="10" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10" style="15" customWidth="1"/>
-    <col min="6" max="256" width="10" style="15" customWidth="1"/>
+    <col min="1" max="1" width="25" style="14" customWidth="1"/>
+    <col min="2" max="2" width="25" style="14" customWidth="1"/>
+    <col min="3" max="3" width="25" style="14" customWidth="1"/>
+    <col min="4" max="4" width="10" style="14" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="14" customWidth="1"/>
+    <col min="6" max="256" width="10" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" ht="12.95" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1676,70 +1962,392 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="12"/>
+    <row r="2" ht="87.75" customHeight="1">
+      <c r="A2" t="s" s="15">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s" s="15">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s" s="15">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s" s="15">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="42" customHeight="1">
+      <c r="A3" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s" s="11">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s" s="11">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="42" customHeight="1">
+      <c r="A4" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="42" customHeight="1">
+      <c r="A5" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s" s="11">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s" s="11">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="42" customHeight="1">
+      <c r="A6" t="s" s="11">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="42" customHeight="1">
+      <c r="A7" t="s" s="11">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="42" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" ht="42" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" ht="42" customHeight="1">
+      <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" ht="42" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" ht="42" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" ht="42" customHeight="1">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" ht="42" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" ht="42" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" ht="42" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" ht="42" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" ht="42" customHeight="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" ht="42" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" ht="42" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" ht="42" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" ht="42" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" ht="42" customHeight="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" ht="42" customHeight="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" ht="42" customHeight="1">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" ht="42" customHeight="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" ht="42" customHeight="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" ht="42" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" ht="42" customHeight="1">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" ht="12.95" customHeight="1">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" ht="12.95" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" ht="12.95" customHeight="1">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" ht="12.95" customHeight="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" ht="12.95" customHeight="1">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" ht="12.95" customHeight="1">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" ht="12.95" customHeight="1">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" ht="12.95" customHeight="1">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" ht="12.95" customHeight="1">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" ht="12.95" customHeight="1">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" ht="12.95" customHeight="1">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" ht="12.95" customHeight="1">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" ht="12.95" customHeight="1">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" ht="12.95" customHeight="1">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" ht="12.95" customHeight="1">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" ht="12.95" customHeight="1">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" ht="12.95" customHeight="1">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" ht="12.95" customHeight="1">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" location="" tooltip="" display=""/>
+  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/src/api/data/产品线.xlsx
+++ b/src/api/data/产品线.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="中文" sheetId="1" r:id="rId4"/>
-    <sheet name="繁体" sheetId="2" r:id="rId5"/>
-    <sheet name="英文" sheetId="3" r:id="rId6"/>
+    <sheet name="中文" sheetId="1" r:id="rId1"/>
+    <sheet name="繁体" sheetId="2" r:id="rId2"/>
+    <sheet name="英文" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>title</t>
   </si>
@@ -43,83 +50,10 @@
     <t>连接器</t>
   </si>
   <si>
+    <t>日本壓著端子</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>http://www.jst-mfg.com</t>
-    </r>
-  </si>
-  <si>
-    <t>莫莱克斯（美国）</t>
-  </si>
-  <si>
-    <t>莫莱克斯是世界上最大的电子、电气以及光纤互连产品和系统制造商之一。莫莱克斯同时也是生产品种齐全的开关和应用工具。莫莱克斯，作为全套产品供应商，保证全球资源配置以满足全球、地区和本土客户的需求。遍布六大洲的莫莱克斯产品开发中心、制造工厂以及销售办事处的团队全心全意100%服务客户。莫莱克斯的潜心敬业精神使其从1938年成立后成为电气行业成长最迅速的公司之一。</t>
-  </si>
-  <si>
-    <t>连接器、集成产品</t>
-  </si>
-  <si>
-    <t>http://www.molex.com</t>
-  </si>
-  <si>
-    <t>矢崎（日本）</t>
-  </si>
-  <si>
-    <t>矢崎提供品种齐全的成品及客户设计连接器，提升全部网络设备的系统集成度，并兼容支持各种类型的应用和环境条件。矢崎掌握市场升级要求并采用先进材料部署领先的设计和制造工艺，生产重量、尺寸、性价比最优的互连系统。公司的连接器具有竞争性价格且更加可靠、扩展内置、装备简便且开发周期更短的优势。</t>
-  </si>
-  <si>
-    <t>http://www.yazaki-group.com</t>
-  </si>
-  <si>
-    <t>益升华（英国）</t>
-  </si>
-  <si>
-    <t>益升华零件制造、销售小型基本组件，如：塑料防护帽、工件夹紧钳、紧固件、手柄和把手以及印刷电路板硬件。作为远景2015战略的一部分，联盟、里德供应以及瑞科公司三家公司合并成立美国益升华零件公司，在美国的地区销售网络以及覆盖欧洲、中东、非洲和亚太地区的全球网络中通过42家主要制造企业、64处销售和配送运营网点以及5家研发中心为客户提供广泛的工业零部件选择。</t>
-  </si>
-  <si>
-    <t>定位器、紧固件、线扣、锁</t>
-  </si>
-  <si>
-    <t>http://us.essentracomponents.com/</t>
-  </si>
-  <si>
-    <t>艾利丹尼森（美国）</t>
-  </si>
-  <si>
-    <t>艾利丹尼森集团是压敏粘性材料（如自粘标签）、服装商标标牌和标签、无线射频识别嵌体以及专业医疗产品的全球制造商和销售商。</t>
-  </si>
-  <si>
-    <t>标签、户外图形标签</t>
-  </si>
-  <si>
-    <t>http://www.averydennison.com</t>
-  </si>
-  <si>
-    <t>诺通（美国）</t>
-  </si>
-  <si>
-    <t>诺通全球互联集团作为有线和无线互连产品的优选制造商在电子和数据通讯行业提供齐全的解决方案和无可匹敌的客户服务体验。</t>
-  </si>
-  <si>
-    <t>电缆、射频及实业</t>
-  </si>
-  <si>
-    <t>http://www.l-com.com</t>
-  </si>
-  <si>
-    <t>日本壓著端子</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
       <t>日本壓著端子製造有限公司成立於</t>
     </r>
     <r>
@@ -135,6 +69,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>年。自成立起，日本壓著端子以其創新和卓越的聲譽確立了其在連接器製造業十强之一的地位。日本壓著端子集團建成生產、研發設施以及服務中心全球網絡。公司的經營宗旨是為客戶提供可靠、技術領先且性價比高的產品。</t>
     </r>
@@ -143,63 +79,134 @@
     <t>產品</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>連接器</t>
   </si>
   <si>
-    <t>莫萊克斯（美國）</t>
-  </si>
-  <si>
-    <t>莫萊克斯是世界上最大的電子、電氣以及光纖互連產品和系統制造商之一。莫萊克斯同時也是生產品種齊全的開關和應用工具。莫萊克斯，作為全套產品供應商，保證全球資源配置以滿足全球、地區和本土客戶的需求。遍布六大洲的莫萊克斯產品開發中心、制造工廠以及銷售辦事處的團隊全心全意100%服務客戶。莫萊克斯的潛心敬業精神使其從1938年成立後成為電氣行業成長最迅速的公司之一。</t>
-  </si>
-  <si>
-    <t>連接器、集成產品</t>
-  </si>
-  <si>
-    <t>矢崎提供品種齊全的成品及客戶設計連接器，提升全部網絡設備的系統集成度，並兼容支持各種類型的應用和環境條件。矢崎掌握市場升級要求並采用先進材料部署領先的設計和制造工藝，生產重量、尺寸、性價比最優的互連系統。公司的連接器具有競爭性價格且更加可靠、擴展內置、裝備簡便且開發周期更短的優勢。</t>
-  </si>
-  <si>
-    <t>益升華（英國）</t>
-  </si>
-  <si>
-    <t>益升華零件制造、銷售小型基本組件，如：塑料防護帽、工件夾緊鉗、緊固件、手柄和把手以及印刷電路板硬件。作為遠景2015戰略的一部分，聯盟、裏德供應以及瑞科公司三家公司合並成立美國益升華零件公司，在美國的地區銷售網絡以及覆蓋歐洲、中東、非洲和亞太地區的全球網絡中通過42家主要制造企業、64處銷售和配送運營網點以及5家研發中心為客戶提供廣泛的工業零部件選擇。</t>
-  </si>
-  <si>
-    <t>定位器、緊固件、線扣、鎖</t>
-  </si>
-  <si>
-    <t>艾利丹尼森（美國）</t>
-  </si>
-  <si>
-    <t>艾利丹尼森集團是壓敏粘性材料（如自粘標簽）、服裝商標標牌和標簽、無線射頻識別嵌體以及專業醫療產品的全球制造商和銷售商。</t>
-  </si>
-  <si>
-    <t>標簽、戶外圖形標簽</t>
-  </si>
-  <si>
-    <t>諾通（美國）</t>
-  </si>
-  <si>
-    <t>諾通全球互聯集團作為有線和無線互連產品的優選制造商在電子和數據通訊行業提供齊全的解決方案和無可匹敵的客戶服務體驗。</t>
-  </si>
-  <si>
-    <t>電纜、射頻及實業</t>
-  </si>
-  <si>
-    <t>JST 
-Molex 
-Yazaki</t>
+    <t>Connector</t>
   </si>
   <si>
     <t>Molex (USA)
 http://www.molex.com
 Molex is one the world's largest manufacturers of electronic, electrical and fiber optic interconnection products and systems. Molex also makes a variety of switches and application tooling. As a one-source supplier, Molex assures worldwide coordination of resources to meet the customers' needs globally, regionally and locally. The Molex Team in product development centers, manufacturing facilities and sales offices on six continents is 100 percent customer driven. This dedication has kept Molex one of the fastest growing companies in the electronics industry since they opened for business in 1938.
 Product: Connector, Integrated Product,</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>Connector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JST 
+Molex 
+Yazaki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jst-mfg.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jst-mfg.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫莱克斯（美国）</t>
+  </si>
+  <si>
+    <t>莫莱克斯是世界上最大的电子、电气以及光纤互连产品和系统制造商之一。莫莱克斯同时也是生产品种齐全的开关和应用工具。莫莱克斯，作为全套产品供应商，保证全球资源配置以满足全球、地区和本土客户的需求。遍布六大洲的莫莱克斯产品开发中心、制造工厂以及销售办事处的团队全心全意100%服务客户。莫莱克斯的潜心敬业精神使其从1938年成立后成为电气行业成长最迅速的公司之一。</t>
+  </si>
+  <si>
+    <t>连接器、集成产品</t>
+  </si>
+  <si>
+    <t>http://www.molex.com</t>
+  </si>
+  <si>
+    <t>矢崎（日本）</t>
+  </si>
+  <si>
+    <t>矢崎提供品种齐全的成品及客户设计连接器，提升全部网络设备的系统集成度，并兼容支持各种类型的应用和环境条件。矢崎掌握市场升级要求并采用先进材料部署领先的设计和制造工艺，生产重量、尺寸、性价比最优的互连系统。公司的连接器具有竞争性价格且更加可靠、扩展内置、装备简便且开发周期更短的优势。</t>
+  </si>
+  <si>
+    <t>http://www.yazaki-group.com</t>
+  </si>
+  <si>
+    <t>益升华（英国）</t>
+  </si>
+  <si>
+    <t>益升华零件制造、销售小型基本组件，如：塑料防护帽、工件夹紧钳、紧固件、手柄和把手以及印刷电路板硬件。作为远景2015战略的一部分，联盟、里德供应以及瑞科公司三家公司合并成立美国益升华零件公司，在美国的地区销售网络以及覆盖欧洲、中东、非洲和亚太地区的全球网络中通过42家主要制造企业、64处销售和配送运营网点以及5家研发中心为客户提供广泛的工业零部件选择。</t>
+  </si>
+  <si>
+    <t>定位器、紧固件、线扣、锁</t>
+  </si>
+  <si>
+    <t>http://us.essentracomponents.com/</t>
+  </si>
+  <si>
+    <t>艾利丹尼森（美国）</t>
+  </si>
+  <si>
+    <t>艾利丹尼森集团是压敏粘性材料（如自粘标签）、服装商标标牌和标签、无线射频识别嵌体以及专业医疗产品的全球制造商和销售商。</t>
+  </si>
+  <si>
+    <t>标签、户外图形标签</t>
+  </si>
+  <si>
+    <t>http://www.averydennison.com</t>
+  </si>
+  <si>
+    <t>诺通（美国）</t>
+  </si>
+  <si>
+    <t>诺通全球互联集团作为有线和无线互连产品的优选制造商在电子和数据通讯行业提供齐全的解决方案和无可匹敌的客户服务体验。</t>
+  </si>
+  <si>
+    <t>电缆、射频及实业</t>
+  </si>
+  <si>
+    <t>http://www.l-com.com</t>
+  </si>
+  <si>
+    <t>莫萊克斯（美國）</t>
+  </si>
+  <si>
+    <t>莫萊克斯是世界上最大的電子、電氣以及光纖互連產品和系統制造商之一。莫萊克斯同時也是生產品種齊全的開關和應用工具。莫萊克斯，作為全套產品供應商，保證全球資源配置以滿足全球、地區和本土客戶的需求。遍布六大洲的莫萊克斯產品開發中心、制造工廠以及銷售辦事處的團隊全心全意100%服務客戶。莫萊克斯的潛心敬業精神使其從1938年成立後成為電氣行業成長最迅速的公司之一。</t>
+  </si>
+  <si>
+    <t>連接器、集成產品</t>
+  </si>
+  <si>
+    <t>矢崎提供品種齊全的成品及客戶設計連接器，提升全部網絡設備的系統集成度，並兼容支持各種類型的應用和環境條件。矢崎掌握市場升級要求並采用先進材料部署領先的設計和制造工藝，生產重量、尺寸、性價比最優的互連系統。公司的連接器具有競爭性價格且更加可靠、擴展內置、裝備簡便且開發周期更短的優勢。</t>
+  </si>
+  <si>
+    <t>益升華（英國）</t>
+  </si>
+  <si>
+    <t>益升華零件制造、銷售小型基本組件，如：塑料防護帽、工件夾緊鉗、緊固件、手柄和把手以及印刷電路板硬件。作為遠景2015戰略的一部分，聯盟、裏德供應以及瑞科公司三家公司合並成立美國益升華零件公司，在美國的地區銷售網絡以及覆蓋歐洲、中東、非洲和亞太地區的全球網絡中通過42家主要制造企業、64處銷售和配送運營網點以及5家研發中心為客戶提供廣泛的工業零部件選擇。</t>
+  </si>
+  <si>
+    <t>定位器、緊固件、線扣、鎖</t>
+  </si>
+  <si>
+    <t>艾利丹尼森（美國）</t>
+  </si>
+  <si>
+    <t>艾利丹尼森集團是壓敏粘性材料（如自粘標簽）、服裝商標標牌和標簽、無線射頻識別嵌體以及專業醫療產品的全球制造商和銷售商。</t>
+  </si>
+  <si>
+    <t>標簽、戶外圖形標簽</t>
+  </si>
+  <si>
+    <t>產品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諾通（美國）</t>
+  </si>
+  <si>
+    <t>諾通全球互聯集團作為有線和無線互連產品的優選制造商在電子和數據通訊行業提供齊全的解決方案和無可匹敵的客戶服務體驗。</t>
+  </si>
+  <si>
+    <t>電纜、射頻及實業</t>
   </si>
   <si>
     <t>Molex (USA)</t>
@@ -220,19 +227,20 @@
     <t>Essentra (UK)</t>
   </si>
   <si>
+    <t>Retainer, Fastener, Cable Tie, Lock</t>
+  </si>
+  <si>
+    <t>Avery Dennison (USA)</t>
+  </si>
+  <si>
+    <t>Label, Outdoor Graphic Label</t>
+  </si>
+  <si>
     <t>Essentra Components manufactures and distributes small, essential components, such as protective plastic caps, workholding clamps, fasteners, handles &amp; knobs and PCB hardware.As part of its Vision 2015 strategy, three companies: Alliance, Reid Supply, and Richco Inc. were joined together to form Essentra Components America. This provided our customers with a vast selection of industrial components with regional distribution sites across America and an international network extending to Europe, the Middle East, Africa and Asia Pacific regions, including 42 principal manufacturing facilities, 64 sales and distribution operations and 5 research/development centers.</t>
-  </si>
-  <si>
-    <t>Retainer, Fastener, Cable Tie, Lock</t>
-  </si>
-  <si>
-    <t>Avery Dennison (USA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Avery Dennison Corporation is a global manufacturer and distributor of pressure-sensitive adhesive materials (such as self-adhesive labels), apparel branding labels and tags, RFID inlays, and specialty medical products.</t>
-  </si>
-  <si>
-    <t>Label, Outdoor Graphic Label</t>
   </si>
   <si>
     <t>L-COM (USA)</t>
@@ -247,39 +255,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="13"/>
-      <name val="Helvetica"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,14 +295,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -345,21 +342,6 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
@@ -369,118 +351,144 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -606,7 +614,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -615,7 +623,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -624,7 +632,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -698,7 +706,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -706,7 +714,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -725,7 +733,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -755,7 +763,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,7 +789,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -807,7 +815,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,7 +841,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -859,7 +867,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -885,7 +893,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -911,7 +919,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -937,7 +945,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -963,7 +971,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -976,9 +984,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -993,7 +1007,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -1001,7 +1015,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1020,7 +1034,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1046,7 +1060,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1072,7 +1086,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1098,7 +1112,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1124,7 +1138,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1150,7 +1164,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1176,7 +1190,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1202,7 +1216,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1228,7 +1242,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,7 +1268,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1267,9 +1281,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1283,7 +1303,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1302,7 +1322,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1332,7 +1352,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1358,7 +1378,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1384,7 +1404,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1410,7 +1430,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1436,7 +1456,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1462,7 +1482,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1488,7 +1508,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1514,7 +1534,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1540,7 +1560,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1553,181 +1573,187 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="198.6" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:5" ht="198.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="42" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s" s="4">
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="42" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="4">
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s" s="6">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="42" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s" s="4">
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="42" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s" s="4">
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s" s="6">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" ht="42" customHeight="1">
-      <c r="A7" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s" s="3">
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s" s="6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" ht="42" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" ht="42" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" ht="42" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1735,191 +1761,180 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10" style="8" customWidth="1"/>
-    <col min="6" max="256" width="10" style="8" customWidth="1"/>
+    <col min="1" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.95" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="136.5" customHeight="1">
-      <c r="A2" t="s" s="9">
+    <row r="1" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="42" customHeight="1">
-      <c r="A3" t="s" s="11">
+    </row>
+    <row r="6" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s" s="11">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="42" customHeight="1">
-      <c r="A4" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="11">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="42" customHeight="1">
-      <c r="A5" t="s" s="11">
+    </row>
+    <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s" s="11">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="42" customHeight="1">
-      <c r="A6" t="s" s="11">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s" s="11">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s" s="11">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s" s="11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" ht="42" customHeight="1">
-      <c r="A7" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s" s="11">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s" s="11">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" ht="42" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" ht="42" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" ht="42" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" ht="42" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" ht="42" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" ht="42" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+    </row>
+    <row r="8" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1927,429 +1942,420 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" style="14" customWidth="1"/>
-    <col min="2" max="2" width="25" style="14" customWidth="1"/>
-    <col min="3" max="3" width="25" style="14" customWidth="1"/>
-    <col min="4" max="4" width="10" style="14" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="14" customWidth="1"/>
-    <col min="6" max="256" width="10" style="14" customWidth="1"/>
+    <col min="1" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.95" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="87.75" customHeight="1">
-      <c r="A2" t="s" s="15">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s" s="15">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s" s="15">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s" s="15">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="42" customHeight="1">
-      <c r="A3" t="s" s="11">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s" s="11">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s" s="11">
+    <row r="1" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E3" t="s" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="42" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="B3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s" s="11">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="42" customHeight="1">
-      <c r="A5" t="s" s="11">
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B5" t="s" s="11">
+      <c r="B4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C5" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s" s="11">
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E5" t="s" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="42" customHeight="1">
-      <c r="A6" t="s" s="11">
+      <c r="B5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" t="s" s="11">
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s" s="11">
+      <c r="B6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E6" t="s" s="11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" ht="42" customHeight="1">
-      <c r="A7" t="s" s="11">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s" s="11">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s" s="11">
+      <c r="E6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s" s="11">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" ht="42" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" ht="42" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" ht="42" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" ht="42" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" ht="42" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" ht="42" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" ht="42" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" ht="42" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" ht="42" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" ht="42" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" ht="42" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" ht="42" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" ht="42" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" ht="42" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" ht="42" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" ht="42" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" ht="42" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" ht="42" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" ht="42" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" ht="42" customHeight="1">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" ht="42" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" ht="42" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" ht="12.95" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" ht="12.95" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" ht="12.95" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" ht="12.95" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" ht="12.95" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" ht="12.95" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" ht="12.95" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" ht="12.95" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" ht="12.95" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" ht="12.95" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" ht="12.95" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" ht="12.95" customHeight="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" ht="12.95" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" ht="12.95" customHeight="1">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44" ht="12.95" customHeight="1">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-    </row>
-    <row r="45" ht="12.95" customHeight="1">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" ht="12.95" customHeight="1">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" ht="12.95" customHeight="1">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
+      <c r="B7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
